--- a/Code/AllParams_transition2real.xlsx
+++ b/Code/AllParams_transition2real.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/4470246/Projects/PMO/HighPloidy_DoubleEdgedSword/code/CaseWestern_GBM/IMOworkshop2022/S3MB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379AE6D-C0B9-7D45-A197-9DC9A78F20EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D489F3D-2FA1-1F4A-BB16-636E7C70F75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="-23500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="760" windowWidth="27800" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="SensitivityAnalysis" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
   <si>
     <t>Name</t>
   </si>
@@ -150,9 +149,6 @@
     <t>biphasic migration rate constant 2 per cell type</t>
   </si>
   <si>
-    <t>top migration speed based on cell type (idea is higher ploidy makes it harder for cells to migrate, though that might not be necessarily true</t>
-  </si>
-  <si>
     <t>threshold of oxygen concentration below which to switch from ox. Phos to glycolysis (i.e. glucose is limiting factor of death and division)</t>
   </si>
   <si>
@@ -297,15 +293,6 @@
     <t>Source 1: for a hamster cell culture at 37 celcius the Ks parameter of Monod equation for glucose is 1.023 mg/mL (5.7 mMol/L). Source 2: "Glucose concentration about 1.0 mg/ml (5.6 mmol/L) can be considered as the threshold value for single cell reduction of which stimulates the transition of cell from proliferating to resting state"</t>
   </si>
   <si>
-    <t>2N cells</t>
-  </si>
-  <si>
-    <t>for log10-transformed glucose concentration in M/L</t>
-  </si>
-  <si>
-    <t>4N cells</t>
-  </si>
-  <si>
     <t>oxygen dependence of radiation driven cell death per cell type (same as alpha_death)</t>
   </si>
   <si>
@@ -391,9 +378,6 @@
   </si>
   <si>
     <t>glucose dependent growth constant per cell type. Glucose concentration at which proliferation is half maximal</t>
-  </si>
-  <si>
-    <t>top migration speed based on cell type</t>
   </si>
   <si>
     <t>Kimmel &amp; Beck, 2023</t>
@@ -483,6 +467,18 @@
   <si>
     <t>interaction tumor cells TME</t>
   </si>
+  <si>
+    <t>delta_Tchemo_MGMTmethylated</t>
+  </si>
+  <si>
+    <t>delta_Tchemo_MGMTunmethylated</t>
+  </si>
+  <si>
+    <t>Row28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biphasic migration rate constant 1: top migration speed </t>
+  </si>
 </sst>
 </file>
 
@@ -491,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -580,12 +576,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Courier New"/>
       <family val="1"/>
     </font>
     <font>
@@ -725,7 +715,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -788,8 +778,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -836,6 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -855,9 +845,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -895,7 +885,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1001,7 +991,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1143,7 +1133,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1154,10 +1144,10 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1185,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>25</v>
@@ -1206,7 +1196,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>25</v>
@@ -1215,22 +1205,22 @@
         <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1251,7 +1241,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>1</v>
@@ -1263,32 +1253,32 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
         <v>68</v>
       </c>
-      <c r="K2" t="s">
-        <v>69</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M2">
         <v>0.185</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="25">
@@ -1304,10 +1294,10 @@
         <v>3.39E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>2</v>
@@ -1319,29 +1309,29 @@
         <v>0.5</v>
       </c>
       <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
         <v>76</v>
       </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="4" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="25">
@@ -1357,8 +1347,8 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>116</v>
+      <c r="F4" s="32" t="s">
+        <v>112</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>3</v>
@@ -1373,10 +1363,10 @@
         <v>27</v>
       </c>
       <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1385,11 +1375,11 @@
         <v>27</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="25">
@@ -1405,10 +1395,10 @@
         <v>3.39E-2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>4</v>
@@ -1420,26 +1410,26 @@
         <v>0.5</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
         <v>35</v>
       </c>
       <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="25">
@@ -1455,8 +1445,8 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>118</v>
+      <c r="F6" s="32" t="s">
+        <v>114</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>5</v>
@@ -1473,10 +1463,10 @@
         <v>27</v>
       </c>
       <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="M6">
         <v>5.7</v>
@@ -1485,75 +1475,83 @@
         <v>27</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
+    </row>
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="25">
-        <f>C7</f>
-        <v>0.53369060000000001</v>
+        <f t="shared" ref="B7" si="0">(C7+D7)/2</f>
+        <v>0.33500000000000002</v>
       </c>
       <c r="C7" s="10">
-        <f>H7</f>
-        <v>0.53369060000000001</v>
+        <v>0.17</v>
       </c>
       <c r="D7" s="10">
-        <f>I7</f>
-        <v>0.34323769999999998</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="30">
-        <v>0.53369060000000001</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.34323769999999998</v>
+      <c r="H7">
+        <f>N7*60*24</f>
+        <v>720</v>
+      </c>
+      <c r="I7">
+        <f>N7*60*24</f>
+        <v>720</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M7" s="1">
         <v>-0.56499999999999995</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="1">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="25">
         <f>C8</f>
-        <v>0.56650080000000003</v>
+        <v>0.86124069999999997</v>
       </c>
       <c r="C8" s="10">
         <f>H8</f>
-        <v>0.56650080000000003</v>
+        <v>0.86124069999999997</v>
       </c>
       <c r="D8" s="10">
         <f>I8</f>
-        <v>0.94881590000000005</v>
+        <v>0.91421419999999998</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -1562,562 +1560,521 @@
         <v>7</v>
       </c>
       <c r="H8" s="10">
-        <v>0.56650080000000003</v>
+        <v>0.86124069999999997</v>
       </c>
       <c r="I8" s="10">
-        <v>0.94881590000000005</v>
+        <v>0.91421419999999998</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1.7999999999999999E-2</v>
-      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>8</v>
+      <c r="A9" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="25">
-        <f t="shared" ref="B9:B12" si="0">(C9+D9)/2</f>
-        <v>0.33500000000000002</v>
+        <f>MEDIAN(C9:D9)</f>
+        <v>5.1019499999999995E-2</v>
       </c>
       <c r="C9" s="10">
-        <v>0.17</v>
+        <f>H9*0.0678*B34</f>
+        <v>3.39E-4</v>
       </c>
       <c r="D9" s="10">
-        <v>0.5</v>
+        <f>I9*0.0678*B34</f>
+        <v>0.1017</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <f>M9*60*24</f>
-        <v>720</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I9">
-        <f>M9*60*24</f>
-        <v>720</v>
-      </c>
-      <c r="J9" t="s">
-        <v>98</v>
+        <v>1.5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
         <v>99</v>
       </c>
-      <c r="M9">
-        <v>0.5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>9</v>
+    </row>
+    <row r="10" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="25">
-        <f>MEDIAN(C10:D10)</f>
-        <v>5.1019499999999995E-2</v>
+        <v>22610</v>
       </c>
       <c r="C10" s="10">
-        <f>H10*0.0678*B34</f>
-        <v>3.39E-4</v>
+        <f>0.8*H10</f>
+        <v>18088</v>
       </c>
       <c r="D10" s="10">
-        <f>I10*0.0678*B34</f>
-        <v>0.1017</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>137</v>
+        <f>1.2*H10</f>
+        <v>27132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I10">
-        <v>1.5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H10" s="25">
+        <v>22610</v>
+      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="1">
+        <f>C29*((10^8)^(1/3))^2</f>
+        <v>861773.87601275463</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="1">
+        <v>240000</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="25">
-        <f>(C11+D11)/2</f>
-        <v>15448</v>
+        <f t="shared" ref="B11" si="1">(C11+D11)/2</f>
+        <v>2930</v>
       </c>
       <c r="C11" s="10">
-        <f>0.8*H11</f>
-        <v>12358.400000000001</v>
+        <f>H11</f>
+        <v>2930</v>
       </c>
       <c r="D11" s="10">
-        <f>1.2*H11</f>
-        <v>18537.599999999999</v>
+        <f t="shared" ref="D11:D32" si="2">C11</f>
+        <v>2930</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1">
-        <f>ROUND(C29*((P11)^(1/3))^2,0)</f>
-        <v>15448</v>
+        <v>2930</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M11" s="1">
-        <f>C29*((10^8)^(1/3))^2</f>
-        <v>861773.87601275463</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="1">
-        <v>240000</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
+        <v>2930</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="25">
-        <f t="shared" si="0"/>
-        <v>2930</v>
+        <f>(C12+D12)/2</f>
+        <v>0.6</v>
       </c>
       <c r="C12" s="10">
-        <f>H12</f>
-        <v>2930</v>
+        <v>0.45</v>
       </c>
       <c r="D12" s="10">
-        <f t="shared" ref="D12:D32" si="1">C12</f>
-        <v>2930</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2930</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.75</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2930</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="25">
-        <f>(C13+D13)/2</f>
-        <v>0.6</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.45</v>
+        <v>135</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.98699999999999999</v>
       </c>
       <c r="D13" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>139</v>
+        <f t="shared" si="2"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="M13" s="19"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" s="27">
-        <v>0.98699999999999999</v>
+        <v>6.6791999999999998</v>
       </c>
       <c r="C14" s="26">
-        <v>0.98699999999999999</v>
+        <v>6.6791999999999998</v>
       </c>
       <c r="D14" s="10">
-        <f t="shared" si="1"/>
-        <v>0.98699999999999999</v>
+        <f t="shared" si="2"/>
+        <v>6.6791999999999998</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="21" t="s">
-        <v>125</v>
-      </c>
+      <c r="L14" s="21"/>
       <c r="M14" s="19"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="27">
-        <v>6.6791999999999998</v>
-      </c>
-      <c r="C15" s="26">
-        <v>6.6791999999999998</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="1"/>
-        <v>6.6791999999999998</v>
+        <v>124</v>
+      </c>
+      <c r="B15" s="25">
+        <f>(C15+D15)/2</f>
+        <v>-1.3799999999999999E-8</v>
+      </c>
+      <c r="C15" s="28">
+        <f>-0.0138/10^6</f>
+        <v>-1.3799999999999999E-8</v>
+      </c>
+      <c r="D15" s="28">
+        <f>-0.0138/10^6</f>
+        <v>-1.3799999999999999E-8</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="21" t="s">
+        <v>121</v>
+      </c>
       <c r="M15" s="19"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B16" s="25">
         <f>(C16+D16)/2</f>
-        <v>-1.3799999999999999E-8</v>
+        <v>2.3460000000000001E-4</v>
       </c>
       <c r="C16" s="28">
-        <f>-0.0138/10^6</f>
-        <v>-1.3799999999999999E-8</v>
+        <f>0.2346/10^3</f>
+        <v>2.3460000000000001E-4</v>
       </c>
       <c r="D16" s="28">
-        <f>-0.0138/10^6</f>
-        <v>-1.3799999999999999E-8</v>
+        <f>0.2346/10^3</f>
+        <v>2.3460000000000001E-4</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M16" s="19"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>130</v>
+    <row r="17" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="25">
         <f>(C17+D17)/2</f>
-        <v>2.3460000000000001E-4</v>
-      </c>
-      <c r="C17" s="28">
-        <f>0.2346/10^3</f>
-        <v>2.3460000000000001E-4</v>
-      </c>
-      <c r="D17" s="28">
-        <f>0.2346/10^3</f>
-        <v>2.3460000000000001E-4</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C17" s="29">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="H17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="B18" s="25">
-        <f>(C18+D18)/2</f>
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="C18" s="29">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="10">
+        <f>1*1</f>
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="L18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
       <c r="N18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="25">
-        <v>1</v>
+        <f>(C19+D19)/2</f>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C19" s="10">
-        <f>0.5*1</f>
-        <v>0.5</v>
+        <f>0.5*0.0032</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D19" s="10">
-        <f>1*1</f>
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
+        <f>1.5*0.0032</f>
+        <v>4.8000000000000004E-3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
+      <c r="G19" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="25">
         <f>(C20+D20)/2</f>
-        <v>2.5679777213077301E-3</v>
+        <v>2.9699999999999997E-2</v>
       </c>
       <c r="C20" s="10">
-        <f>0.5*0.00256797772130773</f>
-        <v>1.283988860653865E-3</v>
+        <f>0.5*0.297/10</f>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="D20" s="10">
-        <f>1.5*0.00256797772130773</f>
-        <v>3.8519665819615953E-3</v>
+        <f>1.5*0.297/10</f>
+        <v>4.4549999999999999E-2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="31" t="s">
         <v>50</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>21</v>
+    <row r="21" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B21" s="25">
-        <f>(C21+D21)/2</f>
-        <v>1.8204176713563201E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="C21" s="10">
-        <f>0.5*0.182041767135632/10</f>
-        <v>9.1020883567816003E-3</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D21" s="10">
-        <f>1.5*0.182041767135632/10</f>
-        <v>2.7306265070344799E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>51</v>
+        <v>59</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="25">
-        <v>0.10199999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C22" s="10">
-        <v>0.10199999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D22" s="10">
-        <f t="shared" si="1"/>
-        <v>0.10199999999999999</v>
+        <f t="shared" si="2"/>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2125,136 +2082,163 @@
         <v>58</v>
       </c>
       <c r="B23" s="25">
-        <v>8.0000000000000002E-3</v>
+        <f>(C23+D23)/2</f>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
-        <v>8.0000000000000002E-3</v>
+        <f>H23</f>
+        <v>3</v>
       </c>
       <c r="D23" s="10">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B24" s="25">
         <f>(C24+D24)/2</f>
-        <v>3</v>
+        <v>1.149</v>
       </c>
       <c r="C24" s="10">
-        <f>H24</f>
-        <v>3</v>
+        <f>H24*B34</f>
+        <v>1.149</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>C24*B34</f>
+        <v>1.149</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>59</v>
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <f>M24</f>
+        <v>1.149</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <f>M24</f>
+        <v>1.149</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="M24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="M24">
+        <v>1.149</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="10" t="s">
+      <c r="Q24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q24" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="25" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B25" s="25">
-        <f>(C25+D25)/2</f>
-        <v>1.149</v>
-      </c>
-      <c r="C25" s="10">
-        <f>H25*B34</f>
-        <v>1.149</v>
-      </c>
-      <c r="D25" s="10">
-        <f>C25*B34</f>
-        <v>1.149</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>137</v>
+        <f>B26*0.7</f>
+        <v>8.26E-3</v>
+      </c>
+      <c r="C25" s="25">
+        <f t="shared" ref="C25:D25" si="3">C26*0.7</f>
+        <v>2.8E-3</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="3"/>
+        <v>1.3719999999999998E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1">
         <f>M25</f>
-        <v>1.149</v>
-      </c>
-      <c r="I25">
-        <f>M25</f>
-        <v>1.149</v>
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M25">
-        <v>1.149</v>
+      <c r="L25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>23</v>
+      <c r="A26" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="B26" s="25">
         <f>(C26+D26)/2</f>
@@ -2271,7 +2255,7 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>23</v>
@@ -2284,19 +2268,19 @@
         <v>0.2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M26" s="1">
         <v>1.9599999999999999E-2</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2307,22 +2291,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="25">
-        <f>B20</f>
-        <v>2.5679777213077301E-3</v>
+        <f>B19</f>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="C27" s="10">
-        <f>C20</f>
-        <v>1.283988860653865E-3</v>
+        <f>C19</f>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D27" s="10">
         <f>C27</f>
-        <v>1.283988860653865E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>42</v>
+        <v>133</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2331,24 +2315,27 @@
       </c>
       <c r="B28" s="25">
         <f>(C28+D28)/2</f>
-        <v>9.1020883567816003E-3</v>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="C28" s="10">
-        <f>C21</f>
-        <v>9.1020883567816003E-3</v>
+        <f>C20</f>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="1"/>
-        <v>9.1020883567816003E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.4849999999999999E-2</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>43</v>
+      <c r="F28" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B29" s="25">
         <v>4</v>
       </c>
@@ -2356,14 +2343,14 @@
         <v>4</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2371,7 @@
         <v>27</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>10</v>
@@ -2393,22 +2380,22 @@
         <v>1</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M30" s="16">
         <v>1</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -2424,17 +2411,17 @@
         <v>0</v>
       </c>
       <c r="D31" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L31" s="18"/>
     </row>
@@ -2449,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="D32" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="17"/>
       <c r="L32" s="18"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B33" s="23">
         <f>100^2</f>
@@ -2474,7 +2461,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B34" s="22">
         <v>1</v>
@@ -2484,7 +2471,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B35" s="22">
         <f>0.000001 * 2^3</f>
@@ -2539,7 +2526,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L13" r:id="rId1" xr:uid="{7F49EF81-CE2D-EF4D-8944-868D39DF1417}"/>
+    <hyperlink ref="L12" r:id="rId1" xr:uid="{7F49EF81-CE2D-EF4D-8944-868D39DF1417}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2556,116 +2543,116 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="24.5" style="44" customWidth="1"/>
+    <col min="1" max="4" width="24.5" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>144</v>
+      <c r="A1" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B3" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="42"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="52" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="42"/>
+      <c r="C11" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
